--- a/Excel/baseDatosPersonas.xlsx
+++ b/Excel/baseDatosPersonas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/sebastianarroniz55_estudiantec_cr/Documents/TEC/Semestre II 2021/POO/Semana 11/Proyecto I/Tarea1POO/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{E7D14838-8B95-4C3F-A140-EE69389E3360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D812567-C834-4ADF-886F-7CFFB1CDB229}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FCC72B-66DB-D84B-9AA7-3F6A94E4A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2839BFEA-832A-4A38-9AD6-DAB11734D71C}"/>
+    <workbookView xWindow="2320" yWindow="1640" windowWidth="29040" windowHeight="15840" xr2:uid="{2839BFEA-832A-4A38-9AD6-DAB11734D71C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombre</t>
   </si>
@@ -58,6 +58,18 @@
   </si>
   <si>
     <t>San José, Alajuela</t>
+  </si>
+  <si>
+    <t>Sebastián Bermúdez</t>
+  </si>
+  <si>
+    <t>sebasberacu@gmail.com</t>
+  </si>
+  <si>
+    <t>8888-8888</t>
+  </si>
+  <si>
+    <t>Guanacaste, Cartago</t>
   </si>
 </sst>
 </file>
@@ -425,22 +437,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE698FCF-88BB-48C6-BA59-46B147A28191}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -466,11 +478,26 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{2068406D-DE95-4388-AAD7-BE6F1C37B577}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{BCFFD77E-EDC0-BC4D-A0F3-285FB642A67B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/baseDatosPersonas.xlsx
+++ b/Excel/baseDatosPersonas.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbermudez/Documents/CodesS2/GitHub/Tarea1POO/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/sebastianarroniz55_estudiantec_cr/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FCC72B-66DB-D84B-9AA7-3F6A94E4A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0654798F-3D65-4BA9-A65E-B1D792706D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="1640" windowWidth="29040" windowHeight="15840" xr2:uid="{2839BFEA-832A-4A38-9AD6-DAB11734D71C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFD1825F-297B-4F9B-ADC5-119A51A6D18D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -48,46 +48,39 @@
     <t>Provincias De Interés</t>
   </si>
   <si>
+    <t>Sebastián Bermúdez</t>
+  </si>
+  <si>
+    <t>sebasberacu@gmail.com</t>
+  </si>
+  <si>
+    <t>8888-8888</t>
+  </si>
+  <si>
+    <t>Guanacaste,Cartago</t>
+  </si>
+  <si>
     <t>Sebastián Arroniz</t>
   </si>
   <si>
     <t>sebastianarroniz55@gmail.com</t>
   </si>
   <si>
-    <t>####-####</t>
-  </si>
-  <si>
-    <t>San José, Alajuela</t>
-  </si>
-  <si>
-    <t>Sebastián Bermúdez</t>
-  </si>
-  <si>
-    <t>sebasberacu@gmail.com</t>
-  </si>
-  <si>
-    <t>8888-8888</t>
-  </si>
-  <si>
-    <t>Guanacaste, Cartago</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>San José,Heredia,Cartago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,21 +103,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -436,69 +421,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE698FCF-88BB-48C6-BA59-46B147A28191}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8517FC3-2E04-4D5E-A355-59C59A745290}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.625" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.25" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2068406D-DE95-4388-AAD7-BE6F1C37B577}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{BCFFD77E-EDC0-BC4D-A0F3-285FB642A67B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/baseDatosPersonas.xlsx
+++ b/Excel/baseDatosPersonas.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>San José,Heredia,Cartago</t>
+  </si>
+  <si>
+    <t>Felipene Obando</t>
+  </si>
+  <si>
+    <t>felipeobando2001@gmail.com</t>
+  </si>
+  <si>
+    <t>San José,Alajuela,Heredia,Puntarenas,Guanacaste,Cartago,Limón</t>
   </si>
 </sst>
 </file>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8517FC3-2E04-4D5E-A355-59C59A745290}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D2"/>
@@ -430,10 +439,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.25" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,6 +487,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
